--- a/medicine/Psychotrope/Brauerei_Gutmann/Brauerei_Gutmann.xlsx
+++ b/medicine/Psychotrope/Brauerei_Gutmann/Brauerei_Gutmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Friedrich Gutmann est une brasserie à Titting.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1707, la brasserie est fondée par le prince-évêque d'Eichstätt, Johann Anton Knebel von Katzenelnbogen. En 1808, après la sécularisation, la brasserie devient la propriété du royaume de Bavière. En 1821, la brasserie est une propriété privée. De 1845 à 1855, elle appartient aux ducs de Leuchtenberg. En 1855, Michael Gutmann acquiert la brasserie pour un prix de 49 000 florins. La brasserie Hofmühl à Eichstätt appartient également à la famille Gutmann à cette époque. En 1913, pour la première fois, la bière blanche domine la production. La brasserie maintient toujours sa propre malterie aujourd'hui.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plus de 90% des bières produites sont de la Weizenbier. Les Weizenbiers ne sont pas pasteurisées. Par conséquent, la durée de conservation des bières est nettement inférieure à celle des autres Weizenbiers stables pendant plus de 6 mois.
 Gutmann Spezial
